--- a/data/trans_dic/IP2907_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2907_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>25,49%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,71</t>
+          <t>12,28; 65,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,86; 22,02</t>
+          <t>5,45; 36,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,48</t>
+          <t>13,01; 43,7</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>17,05%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,85; 23,38</t>
+          <t>13,24; 21,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,75; 26,38</t>
+          <t>12,86; 22,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,53; 23,22</t>
+          <t>14,29; 20,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>19,71%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 65,01</t>
+          <t>14,48; 27,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 36,95</t>
+          <t>14,59; 25,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 43,7</t>
+          <t>16,08; 24,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>19,23%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 27,44</t>
+          <t>12,85; 23,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,59; 25,55</t>
+          <t>15,75; 26,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,08; 24,2</t>
+          <t>15,53; 23,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2907_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2907_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,34; 34,13</t>
+          <t>17,39; 33,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,1; 26,01</t>
+          <t>12,82; 25,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,54; 27,85</t>
+          <t>17,55; 27,4</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,71</t>
+          <t>12,69; 21,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 22,02</t>
+          <t>13,3; 22,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,48</t>
+          <t>13,92; 20,38</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 27,44</t>
+          <t>14,05; 27,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 25,55</t>
+          <t>14,81; 25,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,08; 24,2</t>
+          <t>15,67; 24,4</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,85; 23,38</t>
+          <t>13,05; 22,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 26,38</t>
+          <t>15,42; 25,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,53; 23,22</t>
+          <t>15,8; 22,96</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,82; 22,29</t>
+          <t>16,69; 22,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,7; 21,94</t>
+          <t>16,33; 21,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,3; 21,36</t>
+          <t>17,47; 21,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2907_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2907_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,28; 65,01</t>
+          <t>12,94; 67,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 36,95</t>
+          <t>5,28; 38,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 43,7</t>
+          <t>12,99; 43,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 33,29</t>
+          <t>17,17; 33,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,82; 25,46</t>
+          <t>13,26; 26,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 27,4</t>
+          <t>17,09; 27,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,69; 21,78</t>
+          <t>12,74; 21,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 22,88</t>
+          <t>13,08; 22,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,92; 20,38</t>
+          <t>14,14; 20,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,05; 27,5</t>
+          <t>13,98; 27,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,81; 25,39</t>
+          <t>14,59; 25,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,67; 24,4</t>
+          <t>15,79; 24,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,05; 22,9</t>
+          <t>12,67; 22,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,42; 25,88</t>
+          <t>15,78; 26,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,8; 22,96</t>
+          <t>15,55; 22,95</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,69; 22,6</t>
+          <t>16,78; 22,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,33; 21,42</t>
+          <t>16,53; 21,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,47; 21,38</t>
+          <t>17,3; 21,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2907_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2907_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>23,92%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,94; 67,63</t>
+          <t>13,65; 25,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 38,15</t>
+          <t>19,21; 38,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,99; 43,3</t>
+          <t>18,86; 30,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>17,23%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 33,98</t>
+          <t>12,88; 22,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 26,04</t>
+          <t>13,31; 22,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 27,67</t>
+          <t>14,38; 20,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>19,18%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,74; 21,58</t>
+          <t>14,43; 25,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 22,21</t>
+          <t>13,6; 26,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 20,47</t>
+          <t>15,57; 23,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>19,22%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,98; 27,56</t>
+          <t>15,77; 26,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 25,7</t>
+          <t>13,03; 23,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 24,01</t>
+          <t>15,59; 23,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>19,44%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,67; 22,95</t>
+          <t>16,75; 22,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,78; 26,53</t>
+          <t>17,02; 23,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,55; 22,95</t>
+          <t>17,55; 21,82</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>19,42%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>19,01%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>19,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>16,78; 22,38</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,53; 21,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,3; 21,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
